--- a/example_data/EPA/label_corrected/091234-00118-20190411_2019-10-03_193454.xlsx
+++ b/example_data/EPA/label_corrected/091234-00118-20190411_2019-10-03_193454.xlsx
@@ -938,7 +938,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>PPE || 18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>ppe || 18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Application Instructions || Safety Procedures</t>
+          <t>safety procedures || application instructions</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions</t>
+          <t>use restrictions || mixing</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -16846,7 +16846,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G582" t="inlineStr"/>
@@ -16907,7 +16907,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G584" t="inlineStr"/>
